--- a/lmms-ov/logs/submissions/mmbench_en_dev_results.xlsx
+++ b/lmms-ov/logs/submissions/mmbench_en_dev_results.xlsx
@@ -3622,7 +3622,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -8124,7 +8124,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -10294,7 +10294,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -13870,7 +13870,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -19352,7 +19352,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -21392,7 +21392,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -23146,7 +23146,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -25113,7 +25113,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -30375,7 +30375,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">

--- a/lmms-ov/logs/submissions/mmbench_en_dev_results.xlsx
+++ b/lmms-ov/logs/submissions/mmbench_en_dev_results.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D. Congrats Erich Osteen</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5590,7 +5590,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -6156,7 +6156,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7634,7 +7634,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -8544,7 +8544,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -8894,7 +8894,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -9174,7 +9174,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -9314,7 +9314,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -9524,7 +9524,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -9734,7 +9734,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -9804,7 +9804,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -9874,7 +9874,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -9944,7 +9944,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -10014,7 +10014,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -10084,7 +10084,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -10154,7 +10154,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -10224,7 +10224,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -10294,7 +10294,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -10364,7 +10364,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -10434,7 +10434,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -10574,7 +10574,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -10714,7 +10714,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -11134,7 +11134,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -11274,7 +11274,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -11344,7 +11344,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -11484,7 +11484,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -11554,7 +11554,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -11694,7 +11694,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -11764,7 +11764,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -11834,7 +11834,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -11904,7 +11904,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -12256,7 +12256,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -12537,7 +12537,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -12607,7 +12607,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -12747,7 +12747,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -12958,7 +12958,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -13168,7 +13168,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -13238,7 +13238,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -13380,7 +13380,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -13450,7 +13450,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -13520,7 +13520,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -13590,7 +13590,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -13800,7 +13800,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -13870,7 +13870,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -14010,7 +14010,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -14080,7 +14080,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -14221,7 +14221,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -14437,7 +14437,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -14507,7 +14507,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -14577,7 +14577,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -14787,7 +14787,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -14857,7 +14857,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -14997,7 +14997,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -15067,7 +15067,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -15137,7 +15137,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -15277,7 +15277,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -15347,7 +15347,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -15487,7 +15487,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -15697,7 +15697,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -15837,7 +15837,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -15907,7 +15907,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -15977,7 +15977,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -16047,7 +16047,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -16117,7 +16117,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -16187,7 +16187,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -16468,7 +16468,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -16541,7 +16541,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -16611,7 +16611,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -16753,7 +16753,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -16823,7 +16823,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -16893,7 +16893,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -17033,7 +17033,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -17175,7 +17175,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -17385,7 +17385,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -17455,7 +17455,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -17525,7 +17525,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -17665,7 +17665,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -17807,7 +17807,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -17877,7 +17877,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -17947,7 +17947,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -18017,7 +18017,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -18087,7 +18087,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -18227,7 +18227,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -18578,7 +18578,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -18718,7 +18718,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -18792,7 +18792,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -18862,7 +18862,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -18932,7 +18932,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -19002,7 +19002,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -19072,7 +19072,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -19282,7 +19282,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -19352,7 +19352,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -19492,7 +19492,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -19632,7 +19632,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -19772,7 +19772,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -19842,7 +19842,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -19982,7 +19982,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -20122,7 +20122,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -20192,7 +20192,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -20336,7 +20336,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -20406,7 +20406,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -20616,7 +20616,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -20686,7 +20686,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -20756,7 +20756,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -20826,7 +20826,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -20896,7 +20896,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -20966,7 +20966,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -21036,7 +21036,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -21106,7 +21106,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -21252,7 +21252,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -21322,7 +21322,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -21602,7 +21602,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -21742,7 +21742,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -21812,7 +21812,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -22096,7 +22096,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -22236,7 +22236,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -22306,7 +22306,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -22376,7 +22376,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -22586,7 +22586,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -22656,7 +22656,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -22726,7 +22726,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -22866,7 +22866,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -23076,7 +23076,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -23146,7 +23146,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -23216,7 +23216,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -23356,7 +23356,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -23501,7 +23501,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -23571,7 +23571,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -23641,7 +23641,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -23711,7 +23711,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -23783,7 +23783,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -24273,7 +24273,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -24343,7 +24343,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -24413,7 +24413,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -24483,7 +24483,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -24693,7 +24693,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -24763,7 +24763,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -24833,7 +24833,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -24903,7 +24903,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -25043,7 +25043,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -25113,7 +25113,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -25257,7 +25257,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -25327,7 +25327,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -25467,7 +25467,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -25607,7 +25607,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -25678,7 +25678,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -25749,7 +25749,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -25819,7 +25819,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -25889,7 +25889,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -25959,7 +25959,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -26099,7 +26099,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -26313,7 +26313,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -26383,7 +26383,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -26593,7 +26593,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -26733,7 +26733,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -26803,7 +26803,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -26873,7 +26873,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -26943,7 +26943,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -27294,7 +27294,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -27574,7 +27574,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -27714,7 +27714,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -27784,7 +27784,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -27924,7 +27924,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -28064,7 +28064,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -28134,7 +28134,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -28204,7 +28204,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -28344,7 +28344,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -28414,7 +28414,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -28484,7 +28484,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -28554,7 +28554,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -28624,7 +28624,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -28694,7 +28694,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -28764,7 +28764,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -28834,7 +28834,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -28904,7 +28904,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -29115,7 +29115,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -29185,7 +29185,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -29255,7 +29255,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -29325,7 +29325,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -29395,7 +29395,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -29465,7 +29465,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -29605,7 +29605,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -29745,7 +29745,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -29815,7 +29815,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -29885,7 +29885,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -29955,7 +29955,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -30025,7 +30025,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -30095,7 +30095,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -30305,7 +30305,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -30375,7 +30375,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -30445,7 +30445,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -30655,7 +30655,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -30725,7 +30725,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -30935,7 +30935,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -31005,7 +31005,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -31075,7 +31075,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -31285,7 +31285,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -31355,7 +31355,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -31425,7 +31425,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -31495,7 +31495,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -31775,7 +31775,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -31846,7 +31846,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -31916,7 +31916,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -31986,7 +31986,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -32056,7 +32056,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -32126,7 +32126,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -32336,7 +32336,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -32406,7 +32406,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -32476,7 +32476,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -32548,7 +32548,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -32618,7 +32618,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -32758,7 +32758,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -32898,7 +32898,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -32968,7 +32968,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -33038,7 +33038,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -33108,7 +33108,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -33318,7 +33318,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -33388,7 +33388,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -33458,7 +33458,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -33528,7 +33528,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -33598,7 +33598,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -33668,7 +33668,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -33740,7 +33740,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -33950,7 +33950,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -34090,7 +34090,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -34160,7 +34160,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -34230,7 +34230,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
@@ -34440,7 +34440,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
@@ -34510,7 +34510,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
@@ -34580,7 +34580,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -34720,7 +34720,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -34790,7 +34790,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -34860,7 +34860,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -34930,7 +34930,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -35070,7 +35070,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -35140,7 +35140,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -35210,7 +35210,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
@@ -35280,7 +35280,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
@@ -35350,7 +35350,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -35490,7 +35490,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
@@ -35632,7 +35632,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">

--- a/lmms-ov/logs/submissions/mmbench_en_dev_results.xlsx
+++ b/lmms-ov/logs/submissions/mmbench_en_dev_results.xlsx
@@ -663,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>D. Congrats Erich Osteen</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -8124,7 +8124,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -8404,7 +8404,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>B.</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -10434,7 +10434,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -11204,7 +11204,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -11274,7 +11274,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -11974,7 +11974,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -12186,7 +12186,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -14080,7 +14080,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -14293,7 +14293,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -14787,7 +14787,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -14927,7 +14927,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -15207,7 +15207,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -15417,7 +15417,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -15557,7 +15557,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -15627,7 +15627,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -15767,7 +15767,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -16963,7 +16963,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -17245,7 +17245,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -17315,7 +17315,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -17455,7 +17455,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>B.</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -17595,7 +17595,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -18157,7 +18157,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -18297,7 +18297,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -18508,7 +18508,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -19142,7 +19142,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -19212,7 +19212,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -19282,7 +19282,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -19352,7 +19352,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>C.</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -19492,7 +19492,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -20052,7 +20052,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -21602,7 +21602,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -21672,7 +21672,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -22026,7 +22026,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -22656,7 +22656,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -22866,7 +22866,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -23426,7 +23426,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -23571,7 +23571,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>B.</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -23923,7 +23923,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -23993,7 +23993,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -24133,7 +24133,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -24553,7 +24553,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -25467,7 +25467,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -25889,7 +25889,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>C.</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -25959,7 +25959,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -26029,7 +26029,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -26453,7 +26453,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -27154,7 +27154,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -27504,7 +27504,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -29045,7 +29045,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -29885,7 +29885,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -30165,7 +30165,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -30235,7 +30235,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -30375,7 +30375,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>B.</t>
+          <t>A.</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -31005,7 +31005,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -32336,7 +32336,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>B.</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -34300,7 +34300,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C.</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -34440,7 +34440,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
@@ -34650,7 +34650,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -35000,7 +35000,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>D.</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
